--- a/04.Metodologia/quadro_de_congruencia.xlsx
+++ b/04.Metodologia/quadro_de_congruencia.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Documents\GitHub\tcc\04.Metodologia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088D57DA-AA95-4CCF-9D49-B89479250AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E50AF04-5551-475F-967A-3D3A59D654B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8BB0F2D8-3652-4772-AA25-67A2A41AA8B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8BB0F2D8-3652-4772-AA25-67A2A41AA8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Perguntas</t>
   </si>
@@ -175,13 +176,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -502,9 +503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9793913-9337-4DF9-951E-FD155104D82C}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,144 +529,144 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -748,4 +749,254 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBF56DB-7411-48E2-BA2C-0E6CF54BAFF3}">
+  <dimension ref="A1:H91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C22"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>